--- a/修論/本文0105/figure/j0_analysis.xlsx
+++ b/修論/本文0105/figure/j0_analysis.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N\Documents\yakisaba\修論\本文\figure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\N\Documents\yakisaba\修論\本文0105\figure\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07AAD4EC-1F73-4951-AE30-AA7C577C2538}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{302A0835-A5AC-41A4-BCE1-B409F946F897}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="0" windowWidth="27870" windowHeight="12660" activeTab="2" xr2:uid="{CCFCD27E-1F0B-405F-8564-B4DA451E3983}"/>
+    <workbookView xWindow="3000" yWindow="0" windowWidth="12360" windowHeight="7980" firstSheet="3" activeTab="4" xr2:uid="{CCFCD27E-1F0B-405F-8564-B4DA451E3983}"/>
   </bookViews>
   <sheets>
     <sheet name="3QW_broadcontact _J0_annaysis" sheetId="1" r:id="rId1"/>
-    <sheet name="10QW_broadcontact_j0anallysis" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="3QW_broadcontact_id_annalysis" sheetId="4" r:id="rId2"/>
+    <sheet name="10QW_broadcontact_j0anallysis" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId4"/>
+    <sheet name="id_annaysis10_broad" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="40">
   <si>
     <t xml:space="preserve">  係数値 ±標準偏差</t>
   </si>
@@ -143,6 +145,58 @@
   </si>
   <si>
     <t>10QW</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L500</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L!000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>L2000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w=3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1/</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w30</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w=50</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w100</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>w300</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -507,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B514D3C-4392-42AD-844E-472965DFAC23}">
-  <dimension ref="F3:P56"/>
+  <dimension ref="F3:W56"/>
   <sheetViews>
     <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -518,7 +572,7 @@
     <col min="11" max="11" width="18.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="6:16" x14ac:dyDescent="0.4">
+    <row r="3" spans="6:23" x14ac:dyDescent="0.4">
       <c r="F3">
         <v>3</v>
       </c>
@@ -532,8 +586,11 @@
       <c r="K3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="6:16" x14ac:dyDescent="0.4">
+      <c r="R3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="6:23" x14ac:dyDescent="0.4">
       <c r="F4">
         <v>5</v>
       </c>
@@ -541,7 +598,7 @@
         <v>500</v>
       </c>
       <c r="I4">
-        <f t="shared" ref="I4:I56" si="0">1/G4*10^4</f>
+        <f>1/G4*10^4</f>
         <v>20</v>
       </c>
       <c r="K4" t="s">
@@ -563,8 +620,27 @@
       <c r="P4">
         <v>8.1099999999999992E-3</v>
       </c>
-    </row>
-    <row r="5" spans="6:16" x14ac:dyDescent="0.4">
+      <c r="R4" t="s">
+        <v>4</v>
+      </c>
+      <c r="S4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <f>0.15629</f>
+        <v>0.15629000000000001</v>
+      </c>
+      <c r="U4" t="s">
+        <v>12</v>
+      </c>
+      <c r="V4" t="s">
+        <v>3</v>
+      </c>
+      <c r="W4">
+        <v>8.1099999999999992E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="6:23" x14ac:dyDescent="0.4">
       <c r="F5">
         <v>10</v>
       </c>
@@ -572,7 +648,7 @@
         <v>500</v>
       </c>
       <c r="I5">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I4:I56" si="0">1/G5*10^4</f>
         <v>20</v>
       </c>
       <c r="K5" t="s">
@@ -594,8 +670,27 @@
       <c r="P5">
         <v>5.6599999999999999E-4</v>
       </c>
-    </row>
-    <row r="6" spans="6:16" x14ac:dyDescent="0.4">
+      <c r="R5" t="s">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5">
+        <f>0.0075394</f>
+        <v>7.5393999999999999E-3</v>
+      </c>
+      <c r="U5" t="s">
+        <v>11</v>
+      </c>
+      <c r="V5" t="s">
+        <v>3</v>
+      </c>
+      <c r="W5">
+        <v>5.6599999999999999E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="6:23" x14ac:dyDescent="0.4">
       <c r="F6">
         <v>30</v>
       </c>
@@ -619,8 +714,18 @@
       <c r="M6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="7" spans="6:16" x14ac:dyDescent="0.4">
+      <c r="R6" t="s">
+        <v>14</v>
+      </c>
+      <c r="S6">
+        <f>LN(1/0.3)</f>
+        <v>1.2039728043259361</v>
+      </c>
+      <c r="T6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="6:23" x14ac:dyDescent="0.4">
       <c r="F7">
         <v>50</v>
       </c>
@@ -643,8 +748,17 @@
       <c r="M7" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" spans="6:16" x14ac:dyDescent="0.4">
+      <c r="R7" t="s">
+        <v>8</v>
+      </c>
+      <c r="S7">
+        <v>11.8</v>
+      </c>
+      <c r="T7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="6:23" x14ac:dyDescent="0.4">
       <c r="F8">
         <v>100</v>
       </c>
@@ -668,8 +782,18 @@
       <c r="M8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="6:16" x14ac:dyDescent="0.4">
+      <c r="R8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8">
+        <f>1/T5*LN(1/0.3)</f>
+        <v>159.69079824998488</v>
+      </c>
+      <c r="T8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="6:23" x14ac:dyDescent="0.4">
       <c r="F9">
         <v>300</v>
       </c>
@@ -693,8 +817,18 @@
       <c r="M9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="6:16" x14ac:dyDescent="0.4">
+      <c r="R9" t="s">
+        <v>7</v>
+      </c>
+      <c r="S9">
+        <f>T4-S7/S8</f>
+        <v>8.2397201358415675E-2</v>
+      </c>
+      <c r="T9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="6:23" x14ac:dyDescent="0.4">
       <c r="F10">
         <v>3</v>
       </c>
@@ -709,7 +843,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="6:16" x14ac:dyDescent="0.4">
+    <row r="11" spans="6:23" x14ac:dyDescent="0.4">
       <c r="F11">
         <v>5</v>
       </c>
@@ -724,7 +858,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="12" spans="6:16" x14ac:dyDescent="0.4">
+    <row r="12" spans="6:23" x14ac:dyDescent="0.4">
       <c r="F12">
         <v>10</v>
       </c>
@@ -739,7 +873,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="6:16" x14ac:dyDescent="0.4">
+    <row r="13" spans="6:23" x14ac:dyDescent="0.4">
       <c r="F13">
         <v>30</v>
       </c>
@@ -753,8 +887,11 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-    </row>
-    <row r="14" spans="6:16" x14ac:dyDescent="0.4">
+      <c r="L13">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="14" spans="6:23" x14ac:dyDescent="0.4">
       <c r="F14">
         <v>50</v>
       </c>
@@ -769,7 +906,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="6:16" x14ac:dyDescent="0.4">
+    <row r="15" spans="6:23" x14ac:dyDescent="0.4">
       <c r="F15">
         <v>100</v>
       </c>
@@ -784,7 +921,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="6:16" x14ac:dyDescent="0.4">
+    <row r="16" spans="6:23" x14ac:dyDescent="0.4">
       <c r="F16">
         <v>300</v>
       </c>
@@ -1360,10 +1497,1123 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68353D5A-B37C-4674-BEEA-04734638F192}">
+  <dimension ref="B1:AQ27"/>
+  <sheetViews>
+    <sheetView topLeftCell="V1" workbookViewId="0">
+      <selection activeCell="AA8" sqref="AA8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="2:43" x14ac:dyDescent="0.4">
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="2:43" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2">
+        <v>500</v>
+      </c>
+      <c r="J2">
+        <v>1000</v>
+      </c>
+      <c r="K2">
+        <v>2000</v>
+      </c>
+      <c r="O2">
+        <v>500</v>
+      </c>
+      <c r="Q2">
+        <v>0.66087300000000004</v>
+      </c>
+      <c r="R2">
+        <v>0.81879999999999997</v>
+      </c>
+      <c r="U2">
+        <v>0.68468700000000005</v>
+      </c>
+      <c r="V2">
+        <v>1.5295000000000001</v>
+      </c>
+      <c r="Y2">
+        <v>0.72621800000000003</v>
+      </c>
+      <c r="AB2">
+        <v>0.68346799999999996</v>
+      </c>
+      <c r="AC2">
+        <v>0.79095400000000005</v>
+      </c>
+      <c r="AD2">
+        <v>1.7244900000000001</v>
+      </c>
+      <c r="AF2">
+        <v>0.70464000000000004</v>
+      </c>
+      <c r="AG2">
+        <v>0.77401600000000004</v>
+      </c>
+      <c r="AJ2">
+        <v>0.622865</v>
+      </c>
+      <c r="AK2">
+        <v>0.772119</v>
+      </c>
+      <c r="AN2">
+        <v>0.68570399999999998</v>
+      </c>
+      <c r="AO2">
+        <v>0.81717300000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="2:43" x14ac:dyDescent="0.4">
+      <c r="C3">
+        <v>0.58543299999999998</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="J3">
+        <v>0.58543299999999998</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="O3">
+        <v>1000</v>
+      </c>
+      <c r="P3">
+        <v>0.58543299999999998</v>
+      </c>
+      <c r="Q3">
+        <v>0.54332599999999998</v>
+      </c>
+      <c r="T3">
+        <v>0.53004700000000005</v>
+      </c>
+      <c r="U3">
+        <v>0.60494499999999995</v>
+      </c>
+      <c r="X3">
+        <v>0.80152299999999999</v>
+      </c>
+      <c r="Y3">
+        <v>0.564836</v>
+      </c>
+      <c r="AB3">
+        <v>0.47259400000000001</v>
+      </c>
+      <c r="AC3">
+        <v>0.42445699999999997</v>
+      </c>
+      <c r="AF3">
+        <v>0.42347499999999999</v>
+      </c>
+      <c r="AG3">
+        <v>0.43075799999999997</v>
+      </c>
+      <c r="AJ3">
+        <v>0.44430799999999998</v>
+      </c>
+      <c r="AK3">
+        <v>0.42455900000000002</v>
+      </c>
+      <c r="AN3">
+        <v>0.52154400000000001</v>
+      </c>
+      <c r="AO3">
+        <v>0.50941700000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="2:43" x14ac:dyDescent="0.4">
+      <c r="C4">
+        <v>0.53004700000000005</v>
+      </c>
+      <c r="E4">
+        <v>5</v>
+      </c>
+      <c r="I4">
+        <v>0.66087300000000004</v>
+      </c>
+      <c r="J4">
+        <v>0.54332599999999998</v>
+      </c>
+      <c r="K4">
+        <v>0.292103</v>
+      </c>
+      <c r="L4">
+        <v>3</v>
+      </c>
+      <c r="O4">
+        <v>2000</v>
+      </c>
+      <c r="Q4">
+        <v>0.292103</v>
+      </c>
+      <c r="U4">
+        <v>0.17214699999999999</v>
+      </c>
+      <c r="X4">
+        <v>0.15718099999999999</v>
+      </c>
+      <c r="Y4">
+        <v>8.9769500000000002E-2</v>
+      </c>
+      <c r="AB4">
+        <v>0.240176</v>
+      </c>
+      <c r="AC4">
+        <v>0.31774999999999998</v>
+      </c>
+      <c r="AG4">
+        <v>0.30911899999999998</v>
+      </c>
+      <c r="AJ4">
+        <v>9.4173300000000001E-2</v>
+      </c>
+      <c r="AK4">
+        <v>0.32603300000000002</v>
+      </c>
+    </row>
+    <row r="5" spans="2:43" x14ac:dyDescent="0.4">
+      <c r="C5">
+        <v>0.80152299999999999</v>
+      </c>
+      <c r="D5">
+        <v>0.15718099999999999</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="I5">
+        <v>0.81879999999999997</v>
+      </c>
+      <c r="L5">
+        <v>3</v>
+      </c>
+      <c r="P5">
+        <v>3</v>
+      </c>
+      <c r="Q5">
+        <v>3</v>
+      </c>
+      <c r="R5">
+        <v>3</v>
+      </c>
+      <c r="T5">
+        <v>5</v>
+      </c>
+      <c r="U5">
+        <v>5</v>
+      </c>
+      <c r="V5">
+        <v>5</v>
+      </c>
+      <c r="X5">
+        <v>10</v>
+      </c>
+      <c r="Y5">
+        <v>10</v>
+      </c>
+      <c r="Z5">
+        <v>10</v>
+      </c>
+      <c r="AB5">
+        <v>30</v>
+      </c>
+      <c r="AC5">
+        <v>30</v>
+      </c>
+      <c r="AD5">
+        <v>30</v>
+      </c>
+      <c r="AF5">
+        <v>50</v>
+      </c>
+      <c r="AG5">
+        <v>50</v>
+      </c>
+      <c r="AJ5">
+        <v>100</v>
+      </c>
+      <c r="AK5">
+        <v>100</v>
+      </c>
+      <c r="AN5">
+        <v>300</v>
+      </c>
+      <c r="AO5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="2:43" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <v>0.68346799999999996</v>
+      </c>
+      <c r="C6">
+        <v>0.47259400000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.240176</v>
+      </c>
+      <c r="E6">
+        <v>30</v>
+      </c>
+      <c r="O6" t="s">
+        <v>32</v>
+      </c>
+      <c r="AL6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="2:43" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>0.70464000000000004</v>
+      </c>
+      <c r="C7">
+        <v>0.42347499999999999</v>
+      </c>
+      <c r="E7">
+        <v>50</v>
+      </c>
+      <c r="J7">
+        <v>0.53004700000000005</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="O7">
+        <v>500</v>
+      </c>
+      <c r="P7">
+        <v>0.66087300000000004</v>
+      </c>
+      <c r="Q7">
+        <f>1/P7</f>
+        <v>1.513150030338658</v>
+      </c>
+      <c r="R7">
+        <v>1.513150030338658</v>
+      </c>
+      <c r="T7">
+        <v>500</v>
+      </c>
+      <c r="U7">
+        <v>0.68468700000000005</v>
+      </c>
+      <c r="V7">
+        <f>1/U7</f>
+        <v>1.4605213769211332</v>
+      </c>
+      <c r="W7">
+        <v>1.4605213769211332</v>
+      </c>
+      <c r="X7">
+        <v>500</v>
+      </c>
+      <c r="Y7">
+        <v>0.72621800000000003</v>
+      </c>
+      <c r="Z7">
+        <f>1/Y7</f>
+        <v>1.37699698988458</v>
+      </c>
+      <c r="AA7">
+        <v>1.37699698988458</v>
+      </c>
+      <c r="AB7">
+        <v>500</v>
+      </c>
+      <c r="AC7">
+        <v>0.68346799999999996</v>
+      </c>
+      <c r="AD7">
+        <f>1/AC7</f>
+        <v>1.463126291208952</v>
+      </c>
+      <c r="AE7">
+        <v>1.463126291208952</v>
+      </c>
+      <c r="AF7">
+        <v>500</v>
+      </c>
+      <c r="AG7">
+        <v>0.70464000000000004</v>
+      </c>
+      <c r="AH7">
+        <f>1/AG7</f>
+        <v>1.4191643960036329</v>
+      </c>
+      <c r="AI7">
+        <v>1.4191643960036329</v>
+      </c>
+      <c r="AJ7">
+        <v>500</v>
+      </c>
+      <c r="AK7">
+        <v>0.622865</v>
+      </c>
+      <c r="AL7">
+        <f>1/AK7</f>
+        <v>1.6054843344866063</v>
+      </c>
+      <c r="AM7">
+        <v>1.6054843344866063</v>
+      </c>
+      <c r="AN7">
+        <v>500</v>
+      </c>
+      <c r="AO7">
+        <v>0.68570399999999998</v>
+      </c>
+      <c r="AP7">
+        <f>1/AO7</f>
+        <v>1.4583552086614633</v>
+      </c>
+      <c r="AQ7">
+        <v>1.4583552086614633</v>
+      </c>
+    </row>
+    <row r="8" spans="2:43" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>0.622865</v>
+      </c>
+      <c r="C8">
+        <v>0.44430799999999998</v>
+      </c>
+      <c r="D8">
+        <v>9.4173300000000001E-2</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="I8">
+        <v>0.68468700000000005</v>
+      </c>
+      <c r="J8">
+        <v>0.60494499999999995</v>
+      </c>
+      <c r="K8">
+        <v>0.17214699999999999</v>
+      </c>
+      <c r="L8">
+        <v>5</v>
+      </c>
+      <c r="O8">
+        <v>500</v>
+      </c>
+      <c r="P8">
+        <v>0.81879999999999997</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" ref="Q8:Q11" si="0">1/P8</f>
+        <v>1.2212994626282365</v>
+      </c>
+      <c r="R8">
+        <v>1.2212994626282365</v>
+      </c>
+      <c r="T8">
+        <v>500</v>
+      </c>
+      <c r="U8">
+        <v>1.5295000000000001</v>
+      </c>
+      <c r="V8">
+        <f t="shared" ref="V8:V11" si="1">1/U8</f>
+        <v>0.65380843412880019</v>
+      </c>
+      <c r="W8">
+        <v>0.65380843412880019</v>
+      </c>
+      <c r="X8">
+        <v>1000</v>
+      </c>
+      <c r="Y8">
+        <v>0.80152299999999999</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" ref="Z8:Z11" si="2">1/Y8</f>
+        <v>1.2476248342218501</v>
+      </c>
+      <c r="AA8">
+        <v>1.2476248342218501</v>
+      </c>
+      <c r="AB8">
+        <v>500</v>
+      </c>
+      <c r="AC8">
+        <v>0.79095400000000005</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" ref="AD8:AE13" si="3">1/AC8</f>
+        <v>1.2642960273290229</v>
+      </c>
+      <c r="AE8">
+        <v>1.2642960273290229</v>
+      </c>
+      <c r="AF8">
+        <v>500</v>
+      </c>
+      <c r="AG8">
+        <v>0.77401600000000004</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" ref="AH8:AH13" si="4">1/AG8</f>
+        <v>1.2919629568381015</v>
+      </c>
+      <c r="AI8">
+        <v>1.2919629568381015</v>
+      </c>
+      <c r="AJ8">
+        <v>500</v>
+      </c>
+      <c r="AK8">
+        <v>0.772119</v>
+      </c>
+      <c r="AL8">
+        <f t="shared" ref="AL8:AL13" si="5">1/AK8</f>
+        <v>1.2951371485483456</v>
+      </c>
+      <c r="AM8">
+        <v>1.2951371485483456</v>
+      </c>
+      <c r="AN8">
+        <v>500</v>
+      </c>
+      <c r="AO8">
+        <v>0.81717300000000004</v>
+      </c>
+      <c r="AP8">
+        <f t="shared" ref="AP8:AQ13" si="6">1/AO8</f>
+        <v>1.2237310826471262</v>
+      </c>
+      <c r="AQ8">
+        <v>1.2237310826471262</v>
+      </c>
+    </row>
+    <row r="9" spans="2:43" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>0.68570399999999998</v>
+      </c>
+      <c r="C9">
+        <v>0.52154400000000001</v>
+      </c>
+      <c r="E9">
+        <v>300</v>
+      </c>
+      <c r="I9">
+        <v>1.5295000000000001</v>
+      </c>
+      <c r="L9">
+        <v>5</v>
+      </c>
+      <c r="O9">
+        <v>1000</v>
+      </c>
+      <c r="P9">
+        <v>0.58543299999999998</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>1.7081373957395638</v>
+      </c>
+      <c r="R9">
+        <v>1.7081373957395638</v>
+      </c>
+      <c r="T9">
+        <v>1000</v>
+      </c>
+      <c r="U9">
+        <v>0.53004700000000005</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="1"/>
+        <v>1.8866251483359022</v>
+      </c>
+      <c r="W9">
+        <v>1.8866251483359022</v>
+      </c>
+      <c r="X9">
+        <v>1000</v>
+      </c>
+      <c r="Y9">
+        <v>0.564836</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="2"/>
+        <v>1.770425397814587</v>
+      </c>
+      <c r="AA9">
+        <v>1.770425397814587</v>
+      </c>
+      <c r="AB9">
+        <v>500</v>
+      </c>
+      <c r="AC9">
+        <v>1.7244900000000001</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="3"/>
+        <v>0.57988158817969371</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF9">
+        <v>1000</v>
+      </c>
+      <c r="AG9">
+        <v>0.42347499999999999</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="4"/>
+        <v>2.3614144872778797</v>
+      </c>
+      <c r="AI9">
+        <v>2.3614144872778797</v>
+      </c>
+      <c r="AJ9">
+        <v>1000</v>
+      </c>
+      <c r="AK9">
+        <v>0.44430799999999998</v>
+      </c>
+      <c r="AL9">
+        <f t="shared" si="5"/>
+        <v>2.2506909621253728</v>
+      </c>
+      <c r="AM9">
+        <v>2.2506909621253728</v>
+      </c>
+      <c r="AN9">
+        <v>1000</v>
+      </c>
+      <c r="AO9">
+        <v>0.52154400000000001</v>
+      </c>
+      <c r="AP9">
+        <f t="shared" si="6"/>
+        <v>1.917383768195972</v>
+      </c>
+      <c r="AQ9">
+        <v>1.917383768195972</v>
+      </c>
+    </row>
+    <row r="10" spans="2:43" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>0.66087300000000004</v>
+      </c>
+      <c r="C10">
+        <v>0.54332599999999998</v>
+      </c>
+      <c r="D10">
+        <v>0.292103</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="O10">
+        <v>1000</v>
+      </c>
+      <c r="P10">
+        <v>0.54332599999999998</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>1.8405156388613835</v>
+      </c>
+      <c r="R10">
+        <v>1.8405156388613835</v>
+      </c>
+      <c r="T10">
+        <v>1000</v>
+      </c>
+      <c r="U10">
+        <v>0.60494499999999995</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="1"/>
+        <v>1.6530428386051625</v>
+      </c>
+      <c r="W10">
+        <v>1.6530428386051625</v>
+      </c>
+      <c r="X10">
+        <v>2000</v>
+      </c>
+      <c r="Y10">
+        <v>0.15718099999999999</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="2"/>
+        <v>6.3620921103695744</v>
+      </c>
+      <c r="AA10">
+        <v>6.3620921103695744</v>
+      </c>
+      <c r="AB10">
+        <v>1000</v>
+      </c>
+      <c r="AC10">
+        <v>0.47259400000000001</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="3"/>
+        <v>2.1159811593037574</v>
+      </c>
+      <c r="AE10">
+        <v>2.1159811593037574</v>
+      </c>
+      <c r="AF10">
+        <v>1000</v>
+      </c>
+      <c r="AG10">
+        <v>0.43075799999999997</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="4"/>
+        <v>2.3214890959657164</v>
+      </c>
+      <c r="AI10">
+        <v>2.3214890959657164</v>
+      </c>
+      <c r="AJ10">
+        <v>1000</v>
+      </c>
+      <c r="AK10">
+        <v>0.42455900000000002</v>
+      </c>
+      <c r="AL10">
+        <f t="shared" si="5"/>
+        <v>2.3553852350321156</v>
+      </c>
+      <c r="AM10">
+        <v>2.3553852350321156</v>
+      </c>
+      <c r="AN10">
+        <v>1000</v>
+      </c>
+      <c r="AO10">
+        <v>0.50941700000000001</v>
+      </c>
+      <c r="AP10">
+        <f t="shared" si="6"/>
+        <v>1.9630283245356948</v>
+      </c>
+      <c r="AQ10">
+        <v>1.9630283245356948</v>
+      </c>
+    </row>
+    <row r="11" spans="2:43" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <v>0.68468700000000005</v>
+      </c>
+      <c r="C11">
+        <v>0.60494499999999995</v>
+      </c>
+      <c r="D11">
+        <v>0.17214699999999999</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="J11">
+        <v>0.80152299999999999</v>
+      </c>
+      <c r="K11">
+        <v>0.15718099999999999</v>
+      </c>
+      <c r="L11">
+        <v>10</v>
+      </c>
+      <c r="O11">
+        <v>2000</v>
+      </c>
+      <c r="P11">
+        <v>0.292103</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>3.4234499474500435</v>
+      </c>
+      <c r="R11">
+        <v>3.4234499474500435</v>
+      </c>
+      <c r="T11">
+        <v>2000</v>
+      </c>
+      <c r="U11">
+        <v>0.17214699999999999</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="1"/>
+        <v>5.8089888293144814</v>
+      </c>
+      <c r="W11">
+        <v>5.8089888293144814</v>
+      </c>
+      <c r="X11">
+        <v>2000</v>
+      </c>
+      <c r="Y11">
+        <v>8.9769500000000002E-2</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="2"/>
+        <v>11.139640969371557</v>
+      </c>
+      <c r="AA11">
+        <v>11.139640969371557</v>
+      </c>
+      <c r="AB11">
+        <v>1000</v>
+      </c>
+      <c r="AC11">
+        <v>0.42445699999999997</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="3"/>
+        <v>2.3559512506567217</v>
+      </c>
+      <c r="AE11">
+        <v>2.3559512506567217</v>
+      </c>
+      <c r="AF11">
+        <v>2000</v>
+      </c>
+      <c r="AG11">
+        <v>0.30911899999999998</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="4"/>
+        <v>3.2350001132250044</v>
+      </c>
+      <c r="AI11">
+        <v>3.2350001132250044</v>
+      </c>
+      <c r="AJ11">
+        <v>2000</v>
+      </c>
+      <c r="AK11">
+        <v>9.4173300000000001E-2</v>
+      </c>
+      <c r="AL11">
+        <f t="shared" si="5"/>
+        <v>10.618721017528323</v>
+      </c>
+      <c r="AM11">
+        <v>10.618721017528323</v>
+      </c>
+      <c r="AP11" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="12" spans="2:43" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <v>0.72621800000000003</v>
+      </c>
+      <c r="C12">
+        <v>0.564836</v>
+      </c>
+      <c r="D12">
+        <v>8.9769500000000002E-2</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+      <c r="I12">
+        <v>0.72621800000000003</v>
+      </c>
+      <c r="J12">
+        <v>0.564836</v>
+      </c>
+      <c r="K12">
+        <v>8.9769500000000002E-2</v>
+      </c>
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="AB12">
+        <v>2000</v>
+      </c>
+      <c r="AC12">
+        <v>0.240176</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="3"/>
+        <v>4.1636133502098458</v>
+      </c>
+      <c r="AE12">
+        <v>4.1636133502098458</v>
+      </c>
+      <c r="AH12" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AJ12">
+        <v>2000</v>
+      </c>
+      <c r="AK12">
+        <v>0.32603300000000002</v>
+      </c>
+      <c r="AL12">
+        <f t="shared" si="5"/>
+        <v>3.0671741817546074</v>
+      </c>
+      <c r="AM12">
+        <v>3.0671741817546074</v>
+      </c>
+      <c r="AP12" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="2:43" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <v>0.79095400000000005</v>
+      </c>
+      <c r="C13">
+        <v>0.42445699999999997</v>
+      </c>
+      <c r="D13">
+        <v>0.31774999999999998</v>
+      </c>
+      <c r="E13">
+        <v>30</v>
+      </c>
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="AB13">
+        <v>2000</v>
+      </c>
+      <c r="AC13">
+        <v>0.31774999999999998</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="3"/>
+        <v>3.1471282454760034</v>
+      </c>
+      <c r="AE13">
+        <v>3.1471282454760034</v>
+      </c>
+      <c r="AH13" t="e">
+        <f t="shared" si="4"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AL13" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM13" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AP13" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="14" spans="2:43" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <v>0.77401600000000004</v>
+      </c>
+      <c r="C14">
+        <v>0.43075799999999997</v>
+      </c>
+      <c r="D14">
+        <v>0.30911899999999998</v>
+      </c>
+      <c r="E14">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:43" x14ac:dyDescent="0.4">
+      <c r="B15">
+        <v>0.772119</v>
+      </c>
+      <c r="C15">
+        <v>0.42455900000000002</v>
+      </c>
+      <c r="D15">
+        <v>0.32603300000000002</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="I15">
+        <v>0.68346799999999996</v>
+      </c>
+      <c r="J15">
+        <v>0.47259400000000001</v>
+      </c>
+      <c r="K15">
+        <v>0.240176</v>
+      </c>
+      <c r="L15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:43" x14ac:dyDescent="0.4">
+      <c r="B16">
+        <v>0.81717300000000004</v>
+      </c>
+      <c r="C16">
+        <v>0.50941700000000001</v>
+      </c>
+      <c r="E16">
+        <v>300</v>
+      </c>
+      <c r="I16">
+        <v>0.79095400000000005</v>
+      </c>
+      <c r="J16">
+        <v>0.42445699999999997</v>
+      </c>
+      <c r="K16">
+        <v>0.31774999999999998</v>
+      </c>
+      <c r="L16">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <v>0.81879999999999997</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>1.7244900000000001</v>
+      </c>
+      <c r="L17">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B18">
+        <v>1.5295000000000001</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="E19">
+        <v>10</v>
+      </c>
+      <c r="I19">
+        <v>0.70464000000000004</v>
+      </c>
+      <c r="J19">
+        <v>0.42347499999999999</v>
+      </c>
+      <c r="L19">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="B20">
+        <v>1.7244900000000001</v>
+      </c>
+      <c r="E20">
+        <v>30</v>
+      </c>
+      <c r="I20">
+        <v>0.77401600000000004</v>
+      </c>
+      <c r="J20">
+        <v>0.43075799999999997</v>
+      </c>
+      <c r="K20">
+        <v>0.30911899999999998</v>
+      </c>
+      <c r="L20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="I22">
+        <v>0.622865</v>
+      </c>
+      <c r="J22">
+        <v>0.44430799999999998</v>
+      </c>
+      <c r="K22">
+        <v>9.4173300000000001E-2</v>
+      </c>
+      <c r="L22">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="I23">
+        <v>0.772119</v>
+      </c>
+      <c r="J23">
+        <v>0.42455900000000002</v>
+      </c>
+      <c r="K23">
+        <v>0.32603300000000002</v>
+      </c>
+      <c r="L23">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="I25">
+        <v>0.68570399999999998</v>
+      </c>
+      <c r="J25">
+        <v>0.52154400000000001</v>
+      </c>
+      <c r="L25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="I26">
+        <v>0.81717300000000004</v>
+      </c>
+      <c r="J26">
+        <v>0.50941700000000001</v>
+      </c>
+      <c r="L26">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.4">
+      <c r="I27" t="s">
+        <v>31</v>
+      </c>
+      <c r="L27" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BFBE4548-357F-44CD-9C9B-EBAA52759321}">
   <dimension ref="B2:M23"/>
   <sheetViews>
@@ -1770,11 +3020,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C801931F-CED6-4192-975B-4B8EEDF3FCA9}">
   <dimension ref="C4:K305"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4:K305"/>
     </sheetView>
   </sheetViews>
@@ -5718,4 +6968,473 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DAF3BB-2BF1-4573-A633-E23BD72AFDC2}">
+  <dimension ref="B3:I30"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="F3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0.432</v>
+      </c>
+      <c r="D4">
+        <v>500</v>
+      </c>
+      <c r="F4">
+        <v>500</v>
+      </c>
+      <c r="G4">
+        <v>0.432</v>
+      </c>
+      <c r="H4">
+        <f>1/G4</f>
+        <v>2.3148148148148149</v>
+      </c>
+      <c r="I4">
+        <v>2.3148148148148149</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="D5">
+        <v>500</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+      <c r="G5">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ref="H5:H6" si="0">1/G5</f>
+        <v>2.8490028490028494</v>
+      </c>
+      <c r="I5">
+        <v>2.8490028490028494</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="D6">
+        <v>500</v>
+      </c>
+      <c r="F6">
+        <v>2000</v>
+      </c>
+      <c r="H6" t="e">
+        <f t="shared" si="0"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B7">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="D7">
+        <v>500</v>
+      </c>
+      <c r="F7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B8">
+        <v>50</v>
+      </c>
+      <c r="C8">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="D8">
+        <v>500</v>
+      </c>
+      <c r="F8">
+        <v>500</v>
+      </c>
+      <c r="G8">
+        <v>0.56599999999999995</v>
+      </c>
+      <c r="H8">
+        <f>1/G8</f>
+        <v>1.7667844522968199</v>
+      </c>
+      <c r="I8">
+        <v>1.7667844522968199</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="D9">
+        <v>500</v>
+      </c>
+      <c r="F9">
+        <v>1000</v>
+      </c>
+      <c r="G9">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="H9">
+        <f>1/G9</f>
+        <v>1.9120458891013383</v>
+      </c>
+      <c r="I9">
+        <v>1.9120458891013383</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B10">
+        <v>300</v>
+      </c>
+      <c r="D10">
+        <v>500</v>
+      </c>
+      <c r="F10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>0.35099999999999998</v>
+      </c>
+      <c r="D11">
+        <v>1000</v>
+      </c>
+      <c r="F11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="D12">
+        <v>1000</v>
+      </c>
+      <c r="F12">
+        <v>500</v>
+      </c>
+      <c r="G12">
+        <v>0.59199999999999997</v>
+      </c>
+      <c r="H12">
+        <f>1/G12</f>
+        <v>1.6891891891891893</v>
+      </c>
+      <c r="I12">
+        <v>1.6891891891891893</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="D13">
+        <v>1000</v>
+      </c>
+      <c r="F13">
+        <v>1000</v>
+      </c>
+      <c r="G13">
+        <v>0.44900000000000001</v>
+      </c>
+      <c r="H13">
+        <f>1/G13</f>
+        <v>2.2271714922048997</v>
+      </c>
+      <c r="I13">
+        <v>2.2271714922048997</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B14">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="D14">
+        <v>1000</v>
+      </c>
+      <c r="F14">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B15">
+        <v>50</v>
+      </c>
+      <c r="C15">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="D15">
+        <v>1000</v>
+      </c>
+      <c r="F15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B16">
+        <v>100</v>
+      </c>
+      <c r="C16">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="D16">
+        <v>1000</v>
+      </c>
+      <c r="F16">
+        <v>500</v>
+      </c>
+      <c r="G16">
+        <v>0.55100000000000005</v>
+      </c>
+      <c r="H16">
+        <f>1/G16</f>
+        <v>1.8148820326678765</v>
+      </c>
+      <c r="I16">
+        <v>1.8148820326678765</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <v>300</v>
+      </c>
+      <c r="D17">
+        <v>1000</v>
+      </c>
+      <c r="F17">
+        <v>1000</v>
+      </c>
+      <c r="G17">
+        <v>0.27400000000000002</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ref="H17:H18" si="1">1/G17</f>
+        <v>3.6496350364963499</v>
+      </c>
+      <c r="I17">
+        <v>3.6496350364963499</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>2000</v>
+      </c>
+      <c r="F18">
+        <v>2000</v>
+      </c>
+      <c r="G18">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="H18">
+        <f t="shared" si="1"/>
+        <v>6.9930069930069934</v>
+      </c>
+      <c r="I18">
+        <v>6.9930069930069934</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B19">
+        <v>5</v>
+      </c>
+      <c r="D19">
+        <v>2000</v>
+      </c>
+      <c r="F19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="D20">
+        <v>2000</v>
+      </c>
+      <c r="F20">
+        <v>500</v>
+      </c>
+      <c r="G20">
+        <v>0.54600000000000004</v>
+      </c>
+      <c r="H20">
+        <f>1/G20</f>
+        <v>1.8315018315018314</v>
+      </c>
+      <c r="I20">
+        <v>1.8315018315018314</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B21">
+        <v>30</v>
+      </c>
+      <c r="C21">
+        <v>0.14299999999999999</v>
+      </c>
+      <c r="D21">
+        <v>2000</v>
+      </c>
+      <c r="F21">
+        <v>1000</v>
+      </c>
+      <c r="G21">
+        <v>0.35299999999999998</v>
+      </c>
+      <c r="H21">
+        <f t="shared" ref="H21:H22" si="2">1/G21</f>
+        <v>2.8328611898017</v>
+      </c>
+      <c r="I21">
+        <v>2.8328611898017</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B22">
+        <v>50</v>
+      </c>
+      <c r="C22">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="D22">
+        <v>2000</v>
+      </c>
+      <c r="F22">
+        <v>2000</v>
+      </c>
+      <c r="G22">
+        <v>0.22900000000000001</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>4.3668122270742353</v>
+      </c>
+      <c r="I22">
+        <v>4.3668122270742353</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B23">
+        <v>100</v>
+      </c>
+      <c r="D23">
+        <v>2000</v>
+      </c>
+      <c r="F23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="B24">
+        <v>300</v>
+      </c>
+      <c r="D24">
+        <v>2000</v>
+      </c>
+      <c r="F24">
+        <v>500</v>
+      </c>
+      <c r="G24">
+        <v>0.60299999999999998</v>
+      </c>
+      <c r="H24">
+        <f>1/G24</f>
+        <v>1.6583747927031509</v>
+      </c>
+      <c r="I24">
+        <v>1.6583747927031509</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="F25">
+        <v>1000</v>
+      </c>
+      <c r="G25">
+        <v>0.44400000000000001</v>
+      </c>
+      <c r="H25">
+        <f>1/G25</f>
+        <v>2.2522522522522523</v>
+      </c>
+      <c r="I25">
+        <v>2.2522522522522523</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="F26">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="F27" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="F28">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="F29">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
+      <c r="F30">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>